--- a/run_entrance/test_suite/test_suite_sxcs13配置流程.xlsx
+++ b/run_entrance/test_suite/test_suite_sxcs13配置流程.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21045" windowHeight="9765"/>
+    <workbookView windowWidth="17145" windowHeight="9765" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PageElements" sheetId="1" r:id="rId1"/>
@@ -466,7 +466,7 @@
     <t>{"text":"确认是否要复制?"}</t>
   </si>
   <si>
-    <t>{"text":"用户和角色只能选择一项配置!"}</t>
+    <t>{"text":"用户,角色,智能匹配只能选择一项配置!"}</t>
   </si>
   <si>
     <t>{"text":"保存成功"}</t>
@@ -480,10 +480,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -532,6 +532,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -539,8 +577,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -554,37 +600,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -592,31 +615,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -631,15 +630,24 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -647,14 +655,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -675,19 +675,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,79 +819,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -789,31 +843,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -825,37 +855,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -869,17 +869,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -899,17 +893,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -938,31 +952,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -974,10 +974,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -986,16 +986,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1007,112 +1007,112 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1516,7 +1516,7 @@
   <sheetPr/>
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -2531,8 +2531,8 @@
   <sheetPr/>
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="C40" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -3217,7 +3217,7 @@
         <v>103</v>
       </c>
       <c r="F52" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3256,7 +3256,7 @@
         <v>109</v>
       </c>
       <c r="F55" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -3295,7 +3295,7 @@
         <v>112</v>
       </c>
       <c r="F58" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:5">
